--- a/structure_data/annotation/GPCRdb_structure_info.xlsx
+++ b/structure_data/annotation/GPCRdb_structure_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="32660" windowHeight="20540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="32660" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="GRK" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fusion proteins'!$A$1:$C$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fusion proteins'!$A$1:$C$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'G protein'!$A$1:$I$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ligands!$A$1:$H$740</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Nanobodies!$A$1:$C$246</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10065" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10067" uniqueCount="1699">
   <si>
     <t>PDB</t>
   </si>
@@ -5117,9 +5117,6 @@
     <t>Meclinertant</t>
   </si>
   <si>
-    <t>DARPin</t>
-  </si>
-  <si>
     <t>6YVR</t>
   </si>
   <si>
@@ -5157,6 +5154,9 @@
   </si>
   <si>
     <t>N-[[1-(7-Chloro-4-quinolinyl)-5-(2,6-dimethoxyphenyl)-1H-pyrazol-3-yl]carbonyl]-L-leucine</t>
+  </si>
+  <si>
+    <t>DARPin D12</t>
   </si>
 </sst>
 </file>
@@ -18135,7 +18135,7 @@
     </row>
     <row r="521" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B521" s="5" t="s">
         <v>106</v>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="522" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B522" s="5" t="s">
         <v>106</v>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="523" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B523" s="5" t="s">
         <v>106</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="524" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>106</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="525" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>106</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="526" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B526" s="5" t="s">
         <v>106</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="527" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B527" s="5" t="s">
         <v>106</v>
@@ -23833,8 +23833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D296" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="K660" sqref="K660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37156,7 +37156,7 @@
     </row>
     <row r="544" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B544" s="12" t="s">
         <v>275</v>
@@ -37183,10 +37183,10 @@
     </row>
     <row r="545" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C545" s="4" t="s">
         <v>1687</v>
-      </c>
-      <c r="C545" s="4" t="s">
-        <v>1688</v>
       </c>
       <c r="D545" s="5">
         <v>5311451</v>
@@ -37195,7 +37195,7 @@
         <v>843</v>
       </c>
       <c r="F545" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G545" s="5" t="s">
         <v>845</v>
@@ -37207,7 +37207,7 @@
     </row>
     <row r="546" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>1683</v>
@@ -37231,7 +37231,7 @@
     </row>
     <row r="547" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B547" s="12" t="s">
         <v>18</v>
@@ -37258,7 +37258,7 @@
     </row>
     <row r="548" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>848</v>
@@ -37282,10 +37282,10 @@
     </row>
     <row r="549" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C549" s="4" t="s">
         <v>1693</v>
-      </c>
-      <c r="C549" s="4" t="s">
-        <v>1694</v>
       </c>
       <c r="D549" s="5">
         <v>155490996</v>
@@ -37294,7 +37294,7 @@
         <v>846</v>
       </c>
       <c r="F549" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G549" s="5" t="s">
         <v>845</v>
@@ -37306,10 +37306,10 @@
     </row>
     <row r="550" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C550" s="4" t="s">
         <v>1696</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>1697</v>
       </c>
       <c r="D550" s="5">
         <v>44157038</v>
@@ -37318,7 +37318,7 @@
         <v>876</v>
       </c>
       <c r="F550" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G550" s="5" t="s">
         <v>845</v>
@@ -40123,7 +40123,7 @@
         <v>1505</v>
       </c>
       <c r="G664" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H664" s="6">
         <f>VLOOKUP(A664,Structures!A:H,8,FALSE)</f>
@@ -43146,8 +43146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:XFD242"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49375,10 +49375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1011"/>
+  <dimension ref="A1:N1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53368,10 +53368,10 @@
     </row>
     <row r="306" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C306" s="6">
         <f>VLOOKUP(A306,Structures!A:H,8,FALSE)</f>
@@ -53381,10 +53381,10 @@
     </row>
     <row r="307" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C307" s="6">
         <f>VLOOKUP(A307,Structures!A:H,8,FALSE)</f>
@@ -53394,10 +53394,10 @@
     </row>
     <row r="308" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C308" s="6">
         <f>VLOOKUP(A308,Structures!A:H,8,FALSE)</f>
@@ -53407,10 +53407,10 @@
     </row>
     <row r="309" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C309" s="6">
         <f>VLOOKUP(A309,Structures!A:H,8,FALSE)</f>
@@ -53420,10 +53420,10 @@
     </row>
     <row r="310" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C310" s="6">
         <f>VLOOKUP(A310,Structures!A:H,8,FALSE)</f>
@@ -53433,10 +53433,10 @@
     </row>
     <row r="311" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C311" s="6">
         <f>VLOOKUP(A311,Structures!A:H,8,FALSE)</f>
@@ -53446,10 +53446,10 @@
     </row>
     <row r="312" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="C312" s="6">
         <f>VLOOKUP(A312,Structures!A:H,8,FALSE)</f>
@@ -53457,35 +53457,35 @@
       </c>
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>647</v>
+        <v>1682</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1612</v>
+        <v>1698</v>
       </c>
       <c r="C313" s="6">
         <f>VLOOKUP(A313,Structures!A:H,8,FALSE)</f>
-        <v>44244</v>
+        <v>44237</v>
       </c>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="C314" s="6">
         <f>VLOOKUP(A314,Structures!A:H,8,FALSE)</f>
-        <v>44265</v>
+        <v>44244</v>
       </c>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>1608</v>
@@ -53498,33 +53498,33 @@
     </row>
     <row r="316" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>1608</v>
       </c>
       <c r="C316" s="6">
         <f>VLOOKUP(A316,Structures!A:H,8,FALSE)</f>
-        <v>44293</v>
+        <v>44265</v>
       </c>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C317" s="6">
         <f>VLOOKUP(A317,Structures!A:H,8,FALSE)</f>
-        <v>44370</v>
+        <v>44293</v>
       </c>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>1612</v>
@@ -53537,62 +53537,62 @@
     </row>
     <row r="319" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="C319" s="6">
         <f>VLOOKUP(A319,Structures!A:H,8,FALSE)</f>
-        <v>44391</v>
+        <v>44370</v>
       </c>
       <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C320" s="6">
         <f>VLOOKUP(A320,Structures!A:H,8,FALSE)</f>
-        <v>44412</v>
+        <v>44391</v>
       </c>
       <c r="E320" s="4"/>
     </row>
     <row r="321" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C321" s="6">
         <f>VLOOKUP(A321,Structures!A:H,8,FALSE)</f>
-        <v>44433</v>
+        <v>44412</v>
       </c>
       <c r="E321" s="4"/>
     </row>
     <row r="322" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>1607</v>
       </c>
       <c r="C322" s="6">
         <f>VLOOKUP(A322,Structures!A:H,8,FALSE)</f>
-        <v>44447</v>
+        <v>44433</v>
       </c>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C323" s="6">
         <f>VLOOKUP(A323,Structures!A:H,8,FALSE)</f>
@@ -53602,20 +53602,20 @@
     </row>
     <row r="324" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C324" s="6">
         <f>VLOOKUP(A324,Structures!A:H,8,FALSE)</f>
-        <v>44475</v>
+        <v>44447</v>
       </c>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>1607</v>
@@ -53628,7 +53628,7 @@
     </row>
     <row r="326" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>1607</v>
@@ -53641,20 +53641,20 @@
     </row>
     <row r="327" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>1607</v>
       </c>
       <c r="C327" s="6">
         <f>VLOOKUP(A327,Structures!A:H,8,FALSE)</f>
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>1607</v>
@@ -53667,20 +53667,20 @@
     </row>
     <row r="329" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C329" s="6">
         <f>VLOOKUP(A329,Structures!A:H,8,FALSE)</f>
-        <v>44517</v>
+        <v>44482</v>
       </c>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>1608</v>
@@ -53693,7 +53693,7 @@
     </row>
     <row r="331" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>1608</v>
@@ -53704,35 +53704,35 @@
       </c>
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C332" s="6">
         <f>VLOOKUP(A332,Structures!A:H,8,FALSE)</f>
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="C333" s="6">
         <f>VLOOKUP(A333,Structures!A:H,8,FALSE)</f>
-        <v>44552</v>
+        <v>44524</v>
       </c>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>1608</v>
@@ -53743,21 +53743,22 @@
       </c>
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="B335" s="27" t="s">
-        <v>1616</v>
+    <row r="335" spans="1:5" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>1608</v>
       </c>
       <c r="C335" s="6">
         <f>VLOOKUP(A335,Structures!A:H,8,FALSE)</f>
-        <v>44559</v>
-      </c>
+        <v>44552</v>
+      </c>
+      <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B336" s="27" t="s">
         <v>1616</v>
@@ -53769,7 +53770,7 @@
     </row>
     <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B337" s="27" t="s">
         <v>1616</v>
@@ -53781,7 +53782,7 @@
     </row>
     <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B338" s="27" t="s">
         <v>1616</v>
@@ -53791,24 +53792,35 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="22" t="s">
-        <v>824</v>
+    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="8" t="s">
+        <v>829</v>
       </c>
       <c r="B339" s="27" t="s">
-        <v>1607</v>
+        <v>1616</v>
       </c>
       <c r="C339" s="6">
         <f>VLOOKUP(A339,Structures!A:H,8,FALSE)</f>
         <v>44559</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
-      <c r="B340" s="7"/>
-      <c r="C340" s="6"/>
-    </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:3" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="B340" s="27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C340" s="6">
+        <f>VLOOKUP(A340,Structures!A:H,8,FALSE)</f>
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="4"/>
+      <c r="B341" s="7"/>
+      <c r="C341" s="6"/>
+    </row>
     <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54479,8 +54491,9 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C340"/>
+  <autoFilter ref="A1:C341"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -54490,8 +54503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/structure_data/annotation/GPCRdb_structure_info.xlsx
+++ b/structure_data/annotation/GPCRdb_structure_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vdc825/protwis_vagrant/shared/data/protwis/gpcr/structure_data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5068EBD-D9A7-2D44-BFDD-F426B93443AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FA6DE-2634-744E-9F06-DE6E996353EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="32660" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10066" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10065" uniqueCount="1701">
   <si>
     <t>PDB</t>
   </si>
@@ -5168,6 +5168,12 @@
   </si>
   <si>
     <t>DARPin D12</t>
+  </si>
+  <si>
+    <t>gtoplig:756</t>
+  </si>
+  <si>
+    <t>gtoplig:1815</t>
   </si>
 </sst>
 </file>
@@ -5637,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="A662" sqref="A662:XFD662"/>
+    <sheetView showFormulas="1" topLeftCell="A662" workbookViewId="0">
+      <selection activeCell="D684" sqref="D684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23847,8 +23853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209:F209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23860,7 +23866,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="111.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
@@ -34553,8 +34559,8 @@
       <c r="C438" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="D438" s="5" t="s">
-        <v>849</v>
+      <c r="D438" s="5">
+        <v>457933</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>846</v>
@@ -39519,7 +39525,7 @@
         <v>870</v>
       </c>
       <c r="D640" s="5" t="s">
-        <v>849</v>
+        <v>1699</v>
       </c>
       <c r="E640" s="5" t="s">
         <v>846</v>
@@ -39590,11 +39596,14 @@
       <c r="A643" s="4" t="s">
         <v>729</v>
       </c>
+      <c r="B643" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C643" s="4" t="s">
         <v>870</v>
       </c>
       <c r="D643" s="5" t="s">
-        <v>849</v>
+        <v>1699</v>
       </c>
       <c r="E643" s="5" t="s">
         <v>846</v>
@@ -39873,7 +39882,7 @@
         <v>870</v>
       </c>
       <c r="D654" s="5" t="s">
-        <v>849</v>
+        <v>1700</v>
       </c>
       <c r="E654" s="5" t="s">
         <v>846</v>
@@ -41486,14 +41495,14 @@
       <c r="C717" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="D717" s="5" t="s">
-        <v>849</v>
+      <c r="D717" s="5">
+        <v>36511</v>
       </c>
       <c r="E717" s="7" t="s">
         <v>846</v>
       </c>
       <c r="F717" s="16" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="G717" s="7" t="s">
         <v>872</v>

--- a/structure_data/annotation/GPCRdb_structure_info.xlsx
+++ b/structure_data/annotation/GPCRdb_structure_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vdc825/protwis_vagrant/shared/data/protwis/gpcr/structure_data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E936F4-2CE3-BE4D-9D81-EEC02BDAAD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91959F5-9A3D-6C4C-9BEB-66A4256D502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="29700" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23908,8 +23908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C740" sqref="C740"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
